--- a/biology/Zoologie/Chenoprosopus_milleri/Chenoprosopus_milleri.xlsx
+++ b/biology/Zoologie/Chenoprosopus_milleri/Chenoprosopus_milleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chenoprosopus, Chenoprosopus lewisi
 Chenoprosopus est un genre fossile d'amphibiens de la famille également éteinte des Cochleosauridae qui a vécu à la fin de la période Carbonifère et au début du Permien. Selon Paleobiology Database en 2023, ce genre reste monotypique et l'unique espèce fossile et espèce type est Chenoprosopus milleri.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une seule espèce est aujourd'hui rattachée au genre, Chenoprosopus milleri, après que l'espèce Chenoprosopus lewisi, décrite par Robert Hook en 1993[1], a été mise en synonymie avec C. milleri, car considérée comme un C. millieri n'ayant pas atteint le stade adulte[2].
-Étymologie
-Le nom de Chenoprosopus signifie « visage d'oie court », basé sur les racines grecques « cheno- », « oie », et « prosop- », « visage court ».
-Découverte
-Chenoprosopus, un amphibien cochléosauridé, a été découvert par M. Paul C. Miller, dans la formation d'El Cobre Canyon, près du lit d'os Miller, à proximité d'Arroyo del Agua, dans le centre-nord du Nouveau-Mexique, par Mehl en 1913[3],[4]. Le crâne était long et étroit, 28 cm de long et 5,4 cm de large. Les dents étaient robustes et coniques, légèrement recourbées et mesuraient environ 19 mm de long. Une seule vertèbre a également été trouvée sur le site ; elle ressemble à la vertèbre de Diadectes.  « Chenoprosopus lewisi » a été décrit par Hook en 1993, dans la formation de Markley au Texas.
-Cladogramme Edopoidea
-Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une seule espèce est aujourd'hui rattachée au genre, Chenoprosopus milleri, après que l'espèce Chenoprosopus lewisi, décrite par Robert Hook en 1993, a été mise en synonymie avec C. milleri, car considérée comme un C. millieri n'ayant pas atteint le stade adulte.
 </t>
         </is>
       </c>
@@ -546,12 +554,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Chenoprosopus signifie « visage d'oie court », basé sur les racines grecques « cheno- », « oie », et « prosop- », « visage court ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chenoprosopus_milleri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chenoprosopus_milleri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Découverte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chenoprosopus, un amphibien cochléosauridé, a été découvert par M. Paul C. Miller, dans la formation d'El Cobre Canyon, près du lit d'os Miller, à proximité d'Arroyo del Agua, dans le centre-nord du Nouveau-Mexique, par Mehl en 1913,. Le crâne était long et étroit, 28 cm de long et 5,4 cm de large. Les dents étaient robustes et coniques, légèrement recourbées et mesuraient environ 19 mm de long. Une seule vertèbre a également été trouvée sur le site ; elle ressemble à la vertèbre de Diadectes.  « Chenoprosopus lewisi » a été décrit par Hook en 1993, dans la formation de Markley au Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chenoprosopus_milleri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chenoprosopus_milleri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cladogramme Edopoidea</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chenoprosopus_milleri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chenoprosopus_milleri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beaucoup d'autres cochléosauridés de la même période ont un vomer allongé et un choane large et allongé. Cependant, Chenoprosopus se distingue par son museau plus étroit et par la séparation entre le nasal et le maxillaire par le contact large lacrimo-septomaxillaire[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup d'autres cochléosauridés de la même période ont un vomer allongé et un choane large et allongé. Cependant, Chenoprosopus se distingue par son museau plus étroit et par la séparation entre le nasal et le maxillaire par le contact large lacrimo-septomaxillaire.
 </t>
         </is>
       </c>
